--- a/Documentatie/September-2015-Calendar.xlsx
+++ b/Documentatie/September-2015-Calendar.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="11">
   <si>
     <t>◄ Aug 2015</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>September 2015 Groep 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tijd: 9:50, Afspraak: Interview</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lokaal: 322</t>
   </si>
 </sst>
 </file>
@@ -468,57 +474,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="15" xfId="3" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="17" xfId="3" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="14" xfId="4" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="15" xfId="4" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="16" xfId="4" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="15" xfId="4" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="16" xfId="3" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="3" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="3" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="11" xfId="4" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="0" xfId="4" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="12" xfId="4" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="4" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="12" xfId="3" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="12" xfId="4" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="13" xfId="4" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="11" xfId="3" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -542,6 +497,57 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="12" xfId="4" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="13" xfId="4" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="11" xfId="3" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="3" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="12" xfId="3" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="12" xfId="4" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="4" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="11" xfId="4" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="0" xfId="4" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="3" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="15" xfId="3" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="17" xfId="3" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="14" xfId="4" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="15" xfId="4" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="16" xfId="4" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="15" xfId="4" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="16" xfId="3" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -901,7 +907,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H13" sqref="H13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -934,59 +940,59 @@
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
       <c r="L3" s="4"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="45" t="s">
+      <c r="N3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="46"/>
+      <c r="O3" s="29"/>
       <c r="P3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47">
+      <c r="B4" s="30">
         <v>39054</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31">
         <v>39055</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31">
         <v>39056</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48">
+      <c r="G4" s="31"/>
+      <c r="H4" s="31">
         <v>39057</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48">
+      <c r="I4" s="31"/>
+      <c r="J4" s="31">
         <v>39058</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48">
+      <c r="K4" s="31"/>
+      <c r="L4" s="31">
         <v>39059</v>
       </c>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48">
+      <c r="M4" s="31"/>
+      <c r="N4" s="31">
         <v>39060</v>
       </c>
-      <c r="O4" s="49"/>
+      <c r="O4" s="32"/>
       <c r="P4" t="s">
         <v>3</v>
       </c>
@@ -1021,146 +1027,146 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="41"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="37"/>
-      <c r="N6" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6" s="40"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="39"/>
+      <c r="H6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="39"/>
+      <c r="J6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="39"/>
+      <c r="L6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="39"/>
+      <c r="N6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="34"/>
       <c r="P6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="41"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="40"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="34"/>
       <c r="P7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="41"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="40"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="39"/>
+      <c r="H8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="39"/>
+      <c r="L8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="39"/>
+      <c r="N8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="34"/>
       <c r="P8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="41"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="37"/>
-      <c r="N9" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="40"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="39"/>
+      <c r="L9" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="39"/>
+      <c r="N9" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="34"/>
       <c r="P9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="41"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="40"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="39"/>
+      <c r="H10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="39"/>
+      <c r="L10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="39"/>
+      <c r="N10" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="34"/>
       <c r="P10" t="s">
         <v>3</v>
       </c>
@@ -1199,166 +1205,166 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="37"/>
-      <c r="N12" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="40"/>
+      <c r="B12" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="39"/>
+      <c r="H12" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="39"/>
+      <c r="L12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="39"/>
+      <c r="N12" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="34"/>
       <c r="P12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="37"/>
-      <c r="L13" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="37"/>
-      <c r="N13" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="O13" s="40"/>
+      <c r="B13" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="J13" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="39"/>
+      <c r="L13" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="39"/>
+      <c r="N13" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="34"/>
       <c r="P13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="37"/>
-      <c r="N14" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="40"/>
+      <c r="B14" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="39"/>
+      <c r="H14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="39"/>
+      <c r="L14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="39"/>
+      <c r="N14" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="34"/>
       <c r="P14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="37"/>
-      <c r="J15" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="37"/>
-      <c r="N15" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="40"/>
+      <c r="B15" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="F15" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="39"/>
+      <c r="H15" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="39"/>
+      <c r="L15" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="39"/>
+      <c r="N15" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="34"/>
       <c r="P15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="M16" s="37"/>
-      <c r="N16" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="O16" s="40"/>
+      <c r="B16" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="39"/>
+      <c r="H16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="39"/>
+      <c r="J16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="39"/>
+      <c r="L16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="39"/>
+      <c r="N16" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="34"/>
       <c r="P16" t="s">
         <v>3</v>
       </c>
@@ -1397,166 +1403,166 @@
       </c>
     </row>
     <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="37"/>
-      <c r="J18" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="37"/>
-      <c r="N18" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="40"/>
+      <c r="B18" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="39"/>
+      <c r="H18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="39"/>
+      <c r="J18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="39"/>
+      <c r="L18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="39"/>
+      <c r="N18" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="34"/>
       <c r="P18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" s="37"/>
-      <c r="J19" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" s="37"/>
-      <c r="L19" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="M19" s="37"/>
-      <c r="N19" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="O19" s="40"/>
+      <c r="B19" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="39"/>
+      <c r="H19" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="39"/>
+      <c r="L19" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="39"/>
+      <c r="N19" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="34"/>
       <c r="P19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="37"/>
-      <c r="L20" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="37"/>
-      <c r="N20" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="40"/>
+      <c r="B20" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="39"/>
+      <c r="H20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="39"/>
+      <c r="L20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="39"/>
+      <c r="N20" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="34"/>
       <c r="P20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="37"/>
-      <c r="N21" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="40"/>
+      <c r="B21" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="39"/>
+      <c r="H21" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="39"/>
+      <c r="J21" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="39"/>
+      <c r="L21" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="39"/>
+      <c r="N21" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="34"/>
       <c r="P21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="37"/>
-      <c r="N22" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="40"/>
+      <c r="B22" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="39"/>
+      <c r="H22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="39"/>
+      <c r="L22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="39"/>
+      <c r="N22" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="34"/>
       <c r="P22" t="s">
         <v>3</v>
       </c>
@@ -1595,166 +1601,166 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="37"/>
-      <c r="J24" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="37"/>
-      <c r="L24" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="37"/>
-      <c r="N24" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="40"/>
+      <c r="B24" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="39"/>
+      <c r="H24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="39"/>
+      <c r="L24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="39"/>
+      <c r="N24" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="34"/>
       <c r="P24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="37"/>
-      <c r="J25" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K25" s="37"/>
-      <c r="L25" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="O25" s="40"/>
+      <c r="B25" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="39"/>
+      <c r="H25" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="39"/>
+      <c r="J25" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="39"/>
+      <c r="L25" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" s="39"/>
+      <c r="N25" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" s="34"/>
       <c r="P25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="37"/>
-      <c r="J26" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="37"/>
-      <c r="L26" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="37"/>
-      <c r="N26" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="40"/>
+      <c r="B26" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="39"/>
+      <c r="H26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="39"/>
+      <c r="J26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="39"/>
+      <c r="L26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="39"/>
+      <c r="N26" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="34"/>
       <c r="P26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="37"/>
-      <c r="J27" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="37"/>
-      <c r="L27" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="37"/>
-      <c r="N27" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="40"/>
+      <c r="B27" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="39"/>
+      <c r="H27" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="39"/>
+      <c r="J27" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="39"/>
+      <c r="L27" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="39"/>
+      <c r="N27" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="34"/>
       <c r="P27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="37"/>
-      <c r="H28" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K28" s="37"/>
-      <c r="L28" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="M28" s="37"/>
-      <c r="N28" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="O28" s="40"/>
+      <c r="B28" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="39"/>
+      <c r="H28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="39"/>
+      <c r="J28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="39"/>
+      <c r="L28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" s="39"/>
+      <c r="N28" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28" s="34"/>
       <c r="P28" t="s">
         <v>3</v>
       </c>
@@ -1789,146 +1795,146 @@
       </c>
     </row>
     <row r="30" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="33"/>
+      <c r="B30" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="39"/>
+      <c r="F30" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="39"/>
+      <c r="H30" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="39"/>
+      <c r="J30" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="42"/>
       <c r="P30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="33"/>
+      <c r="B31" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="39"/>
+      <c r="F31" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="39"/>
+      <c r="H31" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="39"/>
+      <c r="J31" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="42"/>
       <c r="P31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="37"/>
-      <c r="H32" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="37"/>
-      <c r="J32" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="33"/>
+      <c r="B32" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="41"/>
+      <c r="D32" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="39"/>
+      <c r="F32" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="39"/>
+      <c r="H32" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="39"/>
+      <c r="J32" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="42"/>
       <c r="P32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="37"/>
-      <c r="H33" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="37"/>
-      <c r="J33" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="33"/>
+      <c r="B33" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="39"/>
+      <c r="F33" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="39"/>
+      <c r="H33" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="39"/>
+      <c r="J33" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="42"/>
       <c r="P33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I34" s="30"/>
-      <c r="J34" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="26"/>
+      <c r="B34" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="46"/>
+      <c r="D34" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="48"/>
+      <c r="F34" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="48"/>
+      <c r="H34" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="48"/>
+      <c r="J34" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="44"/>
       <c r="P34" t="s">
         <v>3</v>
       </c>
@@ -1972,170 +1978,6 @@
     </row>
   </sheetData>
   <mergeCells count="185">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
@@ -2157,6 +1999,170 @@
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K35" r:id="rId1" tooltip="October 2016 Calendar"/>
